--- a/excel/Marks.xlsx
+++ b/excel/Marks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Exam Date</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>e</t>
-  </si>
-  <si>
-    <t>1ru3453</t>
   </si>
 </sst>
 </file>
@@ -108,6 +105,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,13 +189,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -421,7 +419,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>35</v>

--- a/excel/Marks.xlsx
+++ b/excel/Marks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Exam Date</t>
   </si>
@@ -56,40 +56,31 @@
     <t>Internals</t>
   </si>
   <si>
+    <t>First Internals</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
     <t>10cs42</t>
   </si>
   <si>
-    <t>1ru233</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>1ru56456</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>10ec45</t>
+    <t>1ru353</t>
+  </si>
+  <si>
+    <t>Second Internals</t>
+  </si>
+  <si>
+    <t>10cs49</t>
   </si>
   <si>
     <t>Externals</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>10me56</t>
-  </si>
-  <si>
-    <t>1ru236</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>10cs50</t>
+  </si>
+  <si>
+    <t>10cs48</t>
   </si>
 </sst>
 </file>
@@ -194,13 +185,15 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,26 +241,26 @@
       <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>35</v>
@@ -286,26 +279,26 @@
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2012</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>35</v>
@@ -324,26 +317,26 @@
       <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="0" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>35</v>
@@ -360,28 +353,28 @@
         <v>36701</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="0" t="n">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>35</v>
@@ -398,28 +391,28 @@
         <v>36702</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>35</v>
